--- a/outputs-r202/train-c__Chitinivibrionia.xlsx
+++ b/outputs-r202/train-c__Chitinivibrionia.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="364">
   <si>
     <t>Row</t>
   </si>
@@ -676,6 +678,438 @@
   </si>
   <si>
     <t>RS_GCF_000474745.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115975.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784115.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784115.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787445.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001045525.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462255.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164335.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003165595.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115975.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115975.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115975.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115975.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009779925.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784115.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784115.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786415.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009786575.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787445.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787445.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787445.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787445.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012513915.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515615.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519985.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523595.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012728995.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903862805.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903888815.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000474745.1_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -696,7 +1130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -710,11 +1144,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -722,6 +1160,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3838,4 +4280,2078 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D73"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="20" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D73"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="20" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>